--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_192.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_192.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32431-d77104-Reviews-Days_Inn_Glendale_Los_Angeles-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>828</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-By-Wyndham-Glendale-Los-Angeles.h24873.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_192.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_192.xlsx
@@ -12286,7 +12286,7 @@
         <v>151</v>
       </c>
       <c r="B2" t="n">
-        <v>135120</v>
+        <v>166032</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -12357,7 +12357,7 @@
         <v>151</v>
       </c>
       <c r="B3" t="n">
-        <v>135121</v>
+        <v>166033</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -12574,7 +12574,7 @@
         <v>151</v>
       </c>
       <c r="B6" t="n">
-        <v>135122</v>
+        <v>166034</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -12649,7 +12649,7 @@
         <v>151</v>
       </c>
       <c r="B7" t="n">
-        <v>135123</v>
+        <v>166035</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
@@ -12724,7 +12724,7 @@
         <v>151</v>
       </c>
       <c r="B8" t="n">
-        <v>135124</v>
+        <v>166036</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -12799,7 +12799,7 @@
         <v>151</v>
       </c>
       <c r="B9" t="n">
-        <v>135125</v>
+        <v>166037</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -12874,7 +12874,7 @@
         <v>151</v>
       </c>
       <c r="B10" t="n">
-        <v>135126</v>
+        <v>166038</v>
       </c>
       <c r="C10" t="s">
         <v>111</v>
@@ -12945,7 +12945,7 @@
         <v>151</v>
       </c>
       <c r="B11" t="n">
-        <v>135127</v>
+        <v>166039</v>
       </c>
       <c r="C11" t="s">
         <v>117</v>
@@ -13020,7 +13020,7 @@
         <v>151</v>
       </c>
       <c r="B12" t="n">
-        <v>135128</v>
+        <v>166040</v>
       </c>
       <c r="C12" t="s">
         <v>126</v>
@@ -13085,7 +13085,7 @@
         <v>151</v>
       </c>
       <c r="B13" t="n">
-        <v>135129</v>
+        <v>166041</v>
       </c>
       <c r="C13" t="s">
         <v>134</v>
@@ -13146,7 +13146,7 @@
         <v>151</v>
       </c>
       <c r="B14" t="n">
-        <v>135130</v>
+        <v>166042</v>
       </c>
       <c r="C14" t="s">
         <v>143</v>
@@ -13221,7 +13221,7 @@
         <v>151</v>
       </c>
       <c r="B15" t="n">
-        <v>135131</v>
+        <v>166043</v>
       </c>
       <c r="C15" t="s">
         <v>152</v>
@@ -13286,7 +13286,7 @@
         <v>151</v>
       </c>
       <c r="B16" t="n">
-        <v>135132</v>
+        <v>166044</v>
       </c>
       <c r="C16" t="s">
         <v>159</v>
@@ -13351,7 +13351,7 @@
         <v>151</v>
       </c>
       <c r="B17" t="n">
-        <v>135133</v>
+        <v>166045</v>
       </c>
       <c r="C17" t="s">
         <v>166</v>
@@ -13426,7 +13426,7 @@
         <v>151</v>
       </c>
       <c r="B18" t="n">
-        <v>135134</v>
+        <v>166046</v>
       </c>
       <c r="C18" t="s">
         <v>175</v>
@@ -13501,7 +13501,7 @@
         <v>151</v>
       </c>
       <c r="B19" t="n">
-        <v>135135</v>
+        <v>166047</v>
       </c>
       <c r="C19" t="s">
         <v>184</v>
@@ -13576,7 +13576,7 @@
         <v>151</v>
       </c>
       <c r="B20" t="n">
-        <v>135136</v>
+        <v>166048</v>
       </c>
       <c r="C20" t="s">
         <v>194</v>
@@ -13651,7 +13651,7 @@
         <v>151</v>
       </c>
       <c r="B21" t="n">
-        <v>135137</v>
+        <v>166049</v>
       </c>
       <c r="C21" t="s">
         <v>203</v>
@@ -13726,7 +13726,7 @@
         <v>151</v>
       </c>
       <c r="B22" t="n">
-        <v>135138</v>
+        <v>166050</v>
       </c>
       <c r="C22" t="s">
         <v>210</v>
@@ -13801,7 +13801,7 @@
         <v>151</v>
       </c>
       <c r="B23" t="n">
-        <v>135139</v>
+        <v>166051</v>
       </c>
       <c r="C23" t="s">
         <v>219</v>
@@ -13876,7 +13876,7 @@
         <v>151</v>
       </c>
       <c r="B24" t="n">
-        <v>135140</v>
+        <v>166052</v>
       </c>
       <c r="C24" t="s">
         <v>230</v>
@@ -13951,7 +13951,7 @@
         <v>151</v>
       </c>
       <c r="B25" t="n">
-        <v>135141</v>
+        <v>166053</v>
       </c>
       <c r="C25" t="s">
         <v>236</v>
@@ -14101,7 +14101,7 @@
         <v>151</v>
       </c>
       <c r="B27" t="n">
-        <v>135142</v>
+        <v>135131</v>
       </c>
       <c r="C27" t="s">
         <v>252</v>
@@ -14176,7 +14176,7 @@
         <v>151</v>
       </c>
       <c r="B28" t="n">
-        <v>135143</v>
+        <v>166054</v>
       </c>
       <c r="C28" t="s">
         <v>261</v>
@@ -14251,7 +14251,7 @@
         <v>151</v>
       </c>
       <c r="B29" t="n">
-        <v>135144</v>
+        <v>166055</v>
       </c>
       <c r="C29" t="s">
         <v>270</v>
@@ -14326,7 +14326,7 @@
         <v>151</v>
       </c>
       <c r="B30" t="n">
-        <v>135145</v>
+        <v>166056</v>
       </c>
       <c r="C30" t="s">
         <v>280</v>
@@ -14401,7 +14401,7 @@
         <v>151</v>
       </c>
       <c r="B31" t="n">
-        <v>135146</v>
+        <v>166057</v>
       </c>
       <c r="C31" t="s">
         <v>289</v>
@@ -14476,7 +14476,7 @@
         <v>151</v>
       </c>
       <c r="B32" t="n">
-        <v>135147</v>
+        <v>166058</v>
       </c>
       <c r="C32" t="s">
         <v>298</v>
@@ -14551,7 +14551,7 @@
         <v>151</v>
       </c>
       <c r="B33" t="n">
-        <v>135148</v>
+        <v>166059</v>
       </c>
       <c r="C33" t="s">
         <v>308</v>
@@ -14626,7 +14626,7 @@
         <v>151</v>
       </c>
       <c r="B34" t="n">
-        <v>135149</v>
+        <v>166060</v>
       </c>
       <c r="C34" t="s">
         <v>317</v>
@@ -14697,7 +14697,7 @@
         <v>151</v>
       </c>
       <c r="B35" t="n">
-        <v>135150</v>
+        <v>166061</v>
       </c>
       <c r="C35" t="s">
         <v>326</v>
@@ -14772,7 +14772,7 @@
         <v>151</v>
       </c>
       <c r="B36" t="n">
-        <v>135151</v>
+        <v>166062</v>
       </c>
       <c r="C36" t="s">
         <v>336</v>
@@ -14847,7 +14847,7 @@
         <v>151</v>
       </c>
       <c r="B37" t="n">
-        <v>135152</v>
+        <v>166063</v>
       </c>
       <c r="C37" t="s">
         <v>343</v>
@@ -14922,7 +14922,7 @@
         <v>151</v>
       </c>
       <c r="B38" t="n">
-        <v>135153</v>
+        <v>166064</v>
       </c>
       <c r="C38" t="s">
         <v>350</v>
@@ -14997,7 +14997,7 @@
         <v>151</v>
       </c>
       <c r="B39" t="n">
-        <v>135154</v>
+        <v>166065</v>
       </c>
       <c r="C39" t="s">
         <v>359</v>
@@ -15135,7 +15135,7 @@
         <v>151</v>
       </c>
       <c r="B41" t="n">
-        <v>135155</v>
+        <v>166066</v>
       </c>
       <c r="C41" t="s">
         <v>374</v>
@@ -15210,7 +15210,7 @@
         <v>151</v>
       </c>
       <c r="B42" t="n">
-        <v>135156</v>
+        <v>166067</v>
       </c>
       <c r="C42" t="s">
         <v>383</v>
@@ -15285,7 +15285,7 @@
         <v>151</v>
       </c>
       <c r="B43" t="n">
-        <v>135157</v>
+        <v>166068</v>
       </c>
       <c r="C43" t="s">
         <v>392</v>
@@ -15360,7 +15360,7 @@
         <v>151</v>
       </c>
       <c r="B44" t="n">
-        <v>135158</v>
+        <v>166069</v>
       </c>
       <c r="C44" t="s">
         <v>398</v>
@@ -15435,7 +15435,7 @@
         <v>151</v>
       </c>
       <c r="B45" t="n">
-        <v>135159</v>
+        <v>166070</v>
       </c>
       <c r="C45" t="s">
         <v>408</v>
@@ -15510,7 +15510,7 @@
         <v>151</v>
       </c>
       <c r="B46" t="n">
-        <v>135160</v>
+        <v>166071</v>
       </c>
       <c r="C46" t="s">
         <v>414</v>
@@ -15585,7 +15585,7 @@
         <v>151</v>
       </c>
       <c r="B47" t="n">
-        <v>135161</v>
+        <v>166072</v>
       </c>
       <c r="C47" t="s">
         <v>423</v>
@@ -15715,7 +15715,7 @@
         <v>151</v>
       </c>
       <c r="B49" t="n">
-        <v>135162</v>
+        <v>166073</v>
       </c>
       <c r="C49" t="s">
         <v>441</v>
@@ -15790,7 +15790,7 @@
         <v>151</v>
       </c>
       <c r="B50" t="n">
-        <v>135163</v>
+        <v>166074</v>
       </c>
       <c r="C50" t="s">
         <v>447</v>
@@ -15865,7 +15865,7 @@
         <v>151</v>
       </c>
       <c r="B51" t="n">
-        <v>135164</v>
+        <v>166075</v>
       </c>
       <c r="C51" t="s">
         <v>457</v>
@@ -15940,7 +15940,7 @@
         <v>151</v>
       </c>
       <c r="B52" t="n">
-        <v>135165</v>
+        <v>166076</v>
       </c>
       <c r="C52" t="s">
         <v>466</v>
@@ -16009,7 +16009,7 @@
         <v>151</v>
       </c>
       <c r="B53" t="n">
-        <v>135166</v>
+        <v>166077</v>
       </c>
       <c r="C53" t="s">
         <v>475</v>
@@ -16074,7 +16074,7 @@
         <v>151</v>
       </c>
       <c r="B54" t="n">
-        <v>135167</v>
+        <v>166078</v>
       </c>
       <c r="C54" t="s">
         <v>484</v>
@@ -16149,7 +16149,7 @@
         <v>151</v>
       </c>
       <c r="B55" t="n">
-        <v>135168</v>
+        <v>166079</v>
       </c>
       <c r="C55" t="s">
         <v>493</v>
@@ -16224,7 +16224,7 @@
         <v>151</v>
       </c>
       <c r="B56" t="n">
-        <v>135169</v>
+        <v>166080</v>
       </c>
       <c r="C56" t="s">
         <v>500</v>
@@ -16299,7 +16299,7 @@
         <v>151</v>
       </c>
       <c r="B57" t="n">
-        <v>135170</v>
+        <v>166081</v>
       </c>
       <c r="C57" t="s">
         <v>509</v>
@@ -16524,7 +16524,7 @@
         <v>151</v>
       </c>
       <c r="B60" t="n">
-        <v>135171</v>
+        <v>166082</v>
       </c>
       <c r="C60" t="s">
         <v>535</v>
@@ -16674,7 +16674,7 @@
         <v>151</v>
       </c>
       <c r="B62" t="n">
-        <v>135172</v>
+        <v>166083</v>
       </c>
       <c r="C62" t="s">
         <v>551</v>
@@ -16820,7 +16820,7 @@
         <v>151</v>
       </c>
       <c r="B64" t="n">
-        <v>135173</v>
+        <v>166084</v>
       </c>
       <c r="C64" t="s">
         <v>568</v>
@@ -16895,7 +16895,7 @@
         <v>151</v>
       </c>
       <c r="B65" t="n">
-        <v>135174</v>
+        <v>166085</v>
       </c>
       <c r="C65" t="s">
         <v>574</v>
@@ -17039,7 +17039,7 @@
         <v>151</v>
       </c>
       <c r="B67" t="n">
-        <v>135175</v>
+        <v>166086</v>
       </c>
       <c r="C67" t="s">
         <v>592</v>
@@ -17114,7 +17114,7 @@
         <v>151</v>
       </c>
       <c r="B68" t="n">
-        <v>135176</v>
+        <v>166087</v>
       </c>
       <c r="C68" t="s">
         <v>601</v>
@@ -17264,7 +17264,7 @@
         <v>151</v>
       </c>
       <c r="B70" t="n">
-        <v>135177</v>
+        <v>166088</v>
       </c>
       <c r="C70" t="s">
         <v>620</v>
@@ -17339,7 +17339,7 @@
         <v>151</v>
       </c>
       <c r="B71" t="n">
-        <v>135178</v>
+        <v>166089</v>
       </c>
       <c r="C71" t="s">
         <v>626</v>
@@ -17414,7 +17414,7 @@
         <v>151</v>
       </c>
       <c r="B72" t="n">
-        <v>135179</v>
+        <v>166090</v>
       </c>
       <c r="C72" t="s">
         <v>635</v>
@@ -17489,7 +17489,7 @@
         <v>151</v>
       </c>
       <c r="B73" t="n">
-        <v>135180</v>
+        <v>166091</v>
       </c>
       <c r="C73" t="s">
         <v>644</v>
@@ -17564,7 +17564,7 @@
         <v>151</v>
       </c>
       <c r="B74" t="n">
-        <v>135181</v>
+        <v>166092</v>
       </c>
       <c r="C74" t="s">
         <v>653</v>
@@ -17714,7 +17714,7 @@
         <v>151</v>
       </c>
       <c r="B76" t="n">
-        <v>135182</v>
+        <v>166093</v>
       </c>
       <c r="C76" t="s">
         <v>672</v>
@@ -17789,7 +17789,7 @@
         <v>151</v>
       </c>
       <c r="B77" t="n">
-        <v>135183</v>
+        <v>166094</v>
       </c>
       <c r="C77" t="s">
         <v>678</v>
@@ -17864,7 +17864,7 @@
         <v>151</v>
       </c>
       <c r="B78" t="n">
-        <v>135184</v>
+        <v>166095</v>
       </c>
       <c r="C78" t="s">
         <v>688</v>
@@ -17939,7 +17939,7 @@
         <v>151</v>
       </c>
       <c r="B79" t="n">
-        <v>135185</v>
+        <v>166096</v>
       </c>
       <c r="C79" t="s">
         <v>697</v>
@@ -18014,7 +18014,7 @@
         <v>151</v>
       </c>
       <c r="B80" t="n">
-        <v>135141</v>
+        <v>135131</v>
       </c>
       <c r="C80" t="s">
         <v>252</v>
@@ -18239,7 +18239,7 @@
         <v>151</v>
       </c>
       <c r="B83" t="n">
-        <v>135186</v>
+        <v>166097</v>
       </c>
       <c r="C83" t="s">
         <v>731</v>
@@ -18314,7 +18314,7 @@
         <v>151</v>
       </c>
       <c r="B84" t="n">
-        <v>135187</v>
+        <v>166098</v>
       </c>
       <c r="C84" t="s">
         <v>737</v>
@@ -18379,7 +18379,7 @@
         <v>151</v>
       </c>
       <c r="B85" t="n">
-        <v>135188</v>
+        <v>166099</v>
       </c>
       <c r="C85" t="s">
         <v>744</v>
@@ -18454,7 +18454,7 @@
         <v>151</v>
       </c>
       <c r="B86" t="n">
-        <v>135189</v>
+        <v>166100</v>
       </c>
       <c r="C86" t="s">
         <v>753</v>
@@ -18521,7 +18521,7 @@
         <v>151</v>
       </c>
       <c r="B87" t="n">
-        <v>135190</v>
+        <v>166101</v>
       </c>
       <c r="C87" t="s">
         <v>760</v>
@@ -18596,7 +18596,7 @@
         <v>151</v>
       </c>
       <c r="B88" t="n">
-        <v>135191</v>
+        <v>166102</v>
       </c>
       <c r="C88" t="s">
         <v>769</v>
@@ -18669,7 +18669,7 @@
         <v>151</v>
       </c>
       <c r="B89" t="n">
-        <v>135192</v>
+        <v>166103</v>
       </c>
       <c r="C89" t="s">
         <v>778</v>
@@ -18819,7 +18819,7 @@
         <v>151</v>
       </c>
       <c r="B91" t="n">
-        <v>135193</v>
+        <v>166104</v>
       </c>
       <c r="C91" t="s">
         <v>797</v>
@@ -18894,7 +18894,7 @@
         <v>151</v>
       </c>
       <c r="B92" t="n">
-        <v>135194</v>
+        <v>166105</v>
       </c>
       <c r="C92" t="s">
         <v>806</v>
@@ -19024,7 +19024,7 @@
         <v>151</v>
       </c>
       <c r="B94" t="n">
-        <v>135195</v>
+        <v>166106</v>
       </c>
       <c r="C94" t="s">
         <v>824</v>
@@ -19174,7 +19174,7 @@
         <v>151</v>
       </c>
       <c r="B96" t="n">
-        <v>135196</v>
+        <v>166107</v>
       </c>
       <c r="C96" t="s">
         <v>842</v>
@@ -19322,7 +19322,7 @@
         <v>151</v>
       </c>
       <c r="B98" t="n">
-        <v>135197</v>
+        <v>166108</v>
       </c>
       <c r="C98" t="s">
         <v>858</v>
@@ -19397,7 +19397,7 @@
         <v>151</v>
       </c>
       <c r="B99" t="n">
-        <v>135198</v>
+        <v>166109</v>
       </c>
       <c r="C99" t="s">
         <v>866</v>
@@ -19472,7 +19472,7 @@
         <v>151</v>
       </c>
       <c r="B100" t="n">
-        <v>135199</v>
+        <v>166110</v>
       </c>
       <c r="C100" t="s">
         <v>875</v>
@@ -19618,7 +19618,7 @@
         <v>151</v>
       </c>
       <c r="B102" t="n">
-        <v>135200</v>
+        <v>166111</v>
       </c>
       <c r="C102" t="s">
         <v>894</v>
@@ -19693,7 +19693,7 @@
         <v>151</v>
       </c>
       <c r="B103" t="n">
-        <v>135201</v>
+        <v>166112</v>
       </c>
       <c r="C103" t="s">
         <v>903</v>
@@ -19768,7 +19768,7 @@
         <v>151</v>
       </c>
       <c r="B104" t="n">
-        <v>135202</v>
+        <v>166113</v>
       </c>
       <c r="C104" t="s">
         <v>912</v>
@@ -19918,7 +19918,7 @@
         <v>151</v>
       </c>
       <c r="B106" t="n">
-        <v>135203</v>
+        <v>166114</v>
       </c>
       <c r="C106" t="s">
         <v>929</v>
@@ -19989,7 +19989,7 @@
         <v>151</v>
       </c>
       <c r="B107" t="n">
-        <v>135204</v>
+        <v>166115</v>
       </c>
       <c r="C107" t="s">
         <v>936</v>
@@ -20129,7 +20129,7 @@
         <v>151</v>
       </c>
       <c r="B109" t="n">
-        <v>135205</v>
+        <v>166116</v>
       </c>
       <c r="C109" t="s">
         <v>952</v>
@@ -20279,7 +20279,7 @@
         <v>151</v>
       </c>
       <c r="B111" t="n">
-        <v>135206</v>
+        <v>166117</v>
       </c>
       <c r="C111" t="s">
         <v>970</v>
@@ -20354,7 +20354,7 @@
         <v>151</v>
       </c>
       <c r="B112" t="n">
-        <v>135207</v>
+        <v>166118</v>
       </c>
       <c r="C112" t="s">
         <v>977</v>
@@ -20429,7 +20429,7 @@
         <v>151</v>
       </c>
       <c r="B113" t="n">
-        <v>135208</v>
+        <v>166119</v>
       </c>
       <c r="C113" t="s">
         <v>986</v>
@@ -20504,7 +20504,7 @@
         <v>151</v>
       </c>
       <c r="B114" t="n">
-        <v>135209</v>
+        <v>166120</v>
       </c>
       <c r="C114" t="s">
         <v>996</v>
@@ -20579,7 +20579,7 @@
         <v>151</v>
       </c>
       <c r="B115" t="n">
-        <v>135210</v>
+        <v>166121</v>
       </c>
       <c r="C115" t="s">
         <v>1005</v>
@@ -20725,7 +20725,7 @@
         <v>151</v>
       </c>
       <c r="B117" t="n">
-        <v>135211</v>
+        <v>166122</v>
       </c>
       <c r="C117" t="s">
         <v>1024</v>
@@ -20796,7 +20796,7 @@
         <v>151</v>
       </c>
       <c r="B118" t="n">
-        <v>135212</v>
+        <v>166123</v>
       </c>
       <c r="C118" t="s">
         <v>1029</v>
@@ -20871,7 +20871,7 @@
         <v>151</v>
       </c>
       <c r="B119" t="n">
-        <v>135213</v>
+        <v>166124</v>
       </c>
       <c r="C119" t="s">
         <v>1038</v>
@@ -20946,7 +20946,7 @@
         <v>151</v>
       </c>
       <c r="B120" t="n">
-        <v>135214</v>
+        <v>166125</v>
       </c>
       <c r="C120" t="s">
         <v>1048</v>
@@ -21021,7 +21021,7 @@
         <v>151</v>
       </c>
       <c r="B121" t="n">
-        <v>135215</v>
+        <v>166126</v>
       </c>
       <c r="C121" t="s">
         <v>1057</v>
@@ -21088,7 +21088,7 @@
         <v>151</v>
       </c>
       <c r="B122" t="n">
-        <v>135216</v>
+        <v>166127</v>
       </c>
       <c r="C122" t="s">
         <v>1066</v>
@@ -21380,7 +21380,7 @@
         <v>151</v>
       </c>
       <c r="B126" t="n">
-        <v>135217</v>
+        <v>166128</v>
       </c>
       <c r="C126" t="s">
         <v>1100</v>
@@ -21530,7 +21530,7 @@
         <v>151</v>
       </c>
       <c r="B128" t="n">
-        <v>135218</v>
+        <v>166129</v>
       </c>
       <c r="C128" t="s">
         <v>1115</v>
@@ -21605,7 +21605,7 @@
         <v>151</v>
       </c>
       <c r="B129" t="n">
-        <v>135219</v>
+        <v>166130</v>
       </c>
       <c r="C129" t="s">
         <v>1122</v>
@@ -21680,7 +21680,7 @@
         <v>151</v>
       </c>
       <c r="B130" t="n">
-        <v>135220</v>
+        <v>166131</v>
       </c>
       <c r="C130" t="s">
         <v>1131</v>
@@ -21749,7 +21749,7 @@
         <v>151</v>
       </c>
       <c r="B131" t="n">
-        <v>135221</v>
+        <v>166132</v>
       </c>
       <c r="C131" t="s">
         <v>1138</v>
@@ -21824,7 +21824,7 @@
         <v>151</v>
       </c>
       <c r="B132" t="n">
-        <v>135222</v>
+        <v>166133</v>
       </c>
       <c r="C132" t="s">
         <v>1147</v>
@@ -21899,7 +21899,7 @@
         <v>151</v>
       </c>
       <c r="B133" t="n">
-        <v>135223</v>
+        <v>166134</v>
       </c>
       <c r="C133" t="s">
         <v>1154</v>
@@ -21968,7 +21968,7 @@
         <v>151</v>
       </c>
       <c r="B134" t="n">
-        <v>135224</v>
+        <v>166135</v>
       </c>
       <c r="C134" t="s">
         <v>1163</v>
@@ -22043,7 +22043,7 @@
         <v>151</v>
       </c>
       <c r="B135" t="n">
-        <v>135225</v>
+        <v>166136</v>
       </c>
       <c r="C135" t="s">
         <v>1172</v>
@@ -22118,7 +22118,7 @@
         <v>151</v>
       </c>
       <c r="B136" t="n">
-        <v>135226</v>
+        <v>166137</v>
       </c>
       <c r="C136" t="s">
         <v>1180</v>
@@ -22193,7 +22193,7 @@
         <v>151</v>
       </c>
       <c r="B137" t="n">
-        <v>135227</v>
+        <v>166138</v>
       </c>
       <c r="C137" t="s">
         <v>1187</v>
@@ -22268,7 +22268,7 @@
         <v>151</v>
       </c>
       <c r="B138" t="n">
-        <v>135228</v>
+        <v>166139</v>
       </c>
       <c r="C138" t="s">
         <v>1196</v>
@@ -22493,7 +22493,7 @@
         <v>151</v>
       </c>
       <c r="B141" t="n">
-        <v>135229</v>
+        <v>166140</v>
       </c>
       <c r="C141" t="s">
         <v>1223</v>
@@ -22554,7 +22554,7 @@
         <v>151</v>
       </c>
       <c r="B142" t="n">
-        <v>135230</v>
+        <v>166141</v>
       </c>
       <c r="C142" t="s">
         <v>1229</v>
@@ -22629,7 +22629,7 @@
         <v>151</v>
       </c>
       <c r="B143" t="n">
-        <v>135231</v>
+        <v>166142</v>
       </c>
       <c r="C143" t="s">
         <v>1234</v>
@@ -22704,7 +22704,7 @@
         <v>151</v>
       </c>
       <c r="B144" t="n">
-        <v>135232</v>
+        <v>166143</v>
       </c>
       <c r="C144" t="s">
         <v>1244</v>
@@ -22779,7 +22779,7 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>135233</v>
+        <v>166144</v>
       </c>
       <c r="C145" t="s">
         <v>1253</v>
@@ -22854,7 +22854,7 @@
         <v>151</v>
       </c>
       <c r="B146" t="n">
-        <v>135234</v>
+        <v>166145</v>
       </c>
       <c r="C146" t="s">
         <v>1262</v>
@@ -22925,7 +22925,7 @@
         <v>151</v>
       </c>
       <c r="B147" t="n">
-        <v>135235</v>
+        <v>166146</v>
       </c>
       <c r="C147" t="s">
         <v>1268</v>
@@ -23000,7 +23000,7 @@
         <v>151</v>
       </c>
       <c r="B148" t="n">
-        <v>135236</v>
+        <v>166147</v>
       </c>
       <c r="C148" t="s">
         <v>1276</v>
@@ -23075,7 +23075,7 @@
         <v>151</v>
       </c>
       <c r="B149" t="n">
-        <v>135237</v>
+        <v>166148</v>
       </c>
       <c r="C149" t="s">
         <v>1285</v>
@@ -23225,7 +23225,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="n">
-        <v>135238</v>
+        <v>166149</v>
       </c>
       <c r="C151" t="s">
         <v>1301</v>
@@ -23300,7 +23300,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>135239</v>
+        <v>166150</v>
       </c>
       <c r="C152" t="s">
         <v>1309</v>
@@ -23375,7 +23375,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>135240</v>
+        <v>166151</v>
       </c>
       <c r="C153" t="s">
         <v>1318</v>
@@ -23523,7 +23523,7 @@
         <v>151</v>
       </c>
       <c r="B155" t="n">
-        <v>135241</v>
+        <v>166152</v>
       </c>
       <c r="C155" t="s">
         <v>1329</v>
@@ -23598,7 +23598,7 @@
         <v>151</v>
       </c>
       <c r="B156" t="n">
-        <v>135242</v>
+        <v>166153</v>
       </c>
       <c r="C156" t="s">
         <v>1338</v>
@@ -23673,7 +23673,7 @@
         <v>151</v>
       </c>
       <c r="B157" t="n">
-        <v>135243</v>
+        <v>166154</v>
       </c>
       <c r="C157" t="s">
         <v>1345</v>
@@ -23748,7 +23748,7 @@
         <v>151</v>
       </c>
       <c r="B158" t="n">
-        <v>135244</v>
+        <v>166155</v>
       </c>
       <c r="C158" t="s">
         <v>1354</v>
@@ -23823,7 +23823,7 @@
         <v>151</v>
       </c>
       <c r="B159" t="n">
-        <v>135245</v>
+        <v>166156</v>
       </c>
       <c r="C159" t="s">
         <v>1361</v>
@@ -23973,7 +23973,7 @@
         <v>151</v>
       </c>
       <c r="B161" t="n">
-        <v>135246</v>
+        <v>166157</v>
       </c>
       <c r="C161" t="s">
         <v>1378</v>
@@ -24044,7 +24044,7 @@
         <v>151</v>
       </c>
       <c r="B162" t="n">
-        <v>135247</v>
+        <v>166158</v>
       </c>
       <c r="C162" t="s">
         <v>1385</v>
@@ -24119,7 +24119,7 @@
         <v>151</v>
       </c>
       <c r="B163" t="n">
-        <v>135248</v>
+        <v>166159</v>
       </c>
       <c r="C163" t="s">
         <v>1395</v>
@@ -24194,7 +24194,7 @@
         <v>151</v>
       </c>
       <c r="B164" t="n">
-        <v>135249</v>
+        <v>166160</v>
       </c>
       <c r="C164" t="s">
         <v>1403</v>
@@ -24419,7 +24419,7 @@
         <v>151</v>
       </c>
       <c r="B167" t="n">
-        <v>135250</v>
+        <v>166161</v>
       </c>
       <c r="C167" t="s">
         <v>1430</v>
@@ -24494,7 +24494,7 @@
         <v>151</v>
       </c>
       <c r="B168" t="n">
-        <v>135251</v>
+        <v>166162</v>
       </c>
       <c r="C168" t="s">
         <v>1439</v>
@@ -24569,7 +24569,7 @@
         <v>151</v>
       </c>
       <c r="B169" t="n">
-        <v>135252</v>
+        <v>166163</v>
       </c>
       <c r="C169" t="s">
         <v>1447</v>
@@ -24644,7 +24644,7 @@
         <v>151</v>
       </c>
       <c r="B170" t="n">
-        <v>135141</v>
+        <v>135131</v>
       </c>
       <c r="C170" t="s">
         <v>252</v>
@@ -24719,7 +24719,7 @@
         <v>151</v>
       </c>
       <c r="B171" t="n">
-        <v>135253</v>
+        <v>166164</v>
       </c>
       <c r="C171" t="s">
         <v>1462</v>
@@ -24792,7 +24792,7 @@
         <v>151</v>
       </c>
       <c r="B172" t="n">
-        <v>135254</v>
+        <v>166165</v>
       </c>
       <c r="C172" t="s">
         <v>1471</v>
@@ -24859,7 +24859,7 @@
         <v>151</v>
       </c>
       <c r="B173" t="n">
-        <v>135255</v>
+        <v>166166</v>
       </c>
       <c r="C173" t="s">
         <v>1480</v>
@@ -24934,7 +24934,7 @@
         <v>151</v>
       </c>
       <c r="B174" t="n">
-        <v>135256</v>
+        <v>166167</v>
       </c>
       <c r="C174" t="s">
         <v>1489</v>
@@ -24995,7 +24995,7 @@
         <v>151</v>
       </c>
       <c r="B175" t="n">
-        <v>135257</v>
+        <v>166168</v>
       </c>
       <c r="C175" t="s">
         <v>1498</v>
@@ -25070,7 +25070,7 @@
         <v>151</v>
       </c>
       <c r="B176" t="n">
-        <v>135258</v>
+        <v>166169</v>
       </c>
       <c r="C176" t="s">
         <v>1505</v>
@@ -25220,7 +25220,7 @@
         <v>151</v>
       </c>
       <c r="B178" t="n">
-        <v>135259</v>
+        <v>166170</v>
       </c>
       <c r="C178" t="s">
         <v>1520</v>
@@ -25281,7 +25281,7 @@
         <v>151</v>
       </c>
       <c r="B179" t="n">
-        <v>135260</v>
+        <v>166171</v>
       </c>
       <c r="C179" t="s">
         <v>1529</v>
@@ -25356,7 +25356,7 @@
         <v>151</v>
       </c>
       <c r="B180" t="n">
-        <v>135261</v>
+        <v>166172</v>
       </c>
       <c r="C180" t="s">
         <v>1539</v>
@@ -25431,7 +25431,7 @@
         <v>151</v>
       </c>
       <c r="B181" t="n">
-        <v>135262</v>
+        <v>166173</v>
       </c>
       <c r="C181" t="s">
         <v>1548</v>
@@ -25581,7 +25581,7 @@
         <v>151</v>
       </c>
       <c r="B183" t="n">
-        <v>135263</v>
+        <v>166174</v>
       </c>
       <c r="C183" t="s">
         <v>1566</v>
@@ -25656,7 +25656,7 @@
         <v>151</v>
       </c>
       <c r="B184" t="n">
-        <v>135264</v>
+        <v>166175</v>
       </c>
       <c r="C184" t="s">
         <v>1574</v>
@@ -25877,7 +25877,7 @@
         <v>151</v>
       </c>
       <c r="B187" t="n">
-        <v>135265</v>
+        <v>166176</v>
       </c>
       <c r="C187" t="s">
         <v>1602</v>
@@ -25952,7 +25952,7 @@
         <v>151</v>
       </c>
       <c r="B188" t="n">
-        <v>135266</v>
+        <v>166177</v>
       </c>
       <c r="C188" t="s">
         <v>1611</v>
@@ -26027,7 +26027,7 @@
         <v>151</v>
       </c>
       <c r="B189" t="n">
-        <v>135267</v>
+        <v>166178</v>
       </c>
       <c r="C189" t="s">
         <v>1620</v>
@@ -26102,7 +26102,7 @@
         <v>151</v>
       </c>
       <c r="B190" t="n">
-        <v>135268</v>
+        <v>166179</v>
       </c>
       <c r="C190" t="s">
         <v>1627</v>
@@ -26177,7 +26177,7 @@
         <v>151</v>
       </c>
       <c r="B191" t="n">
-        <v>135269</v>
+        <v>166180</v>
       </c>
       <c r="C191" t="s">
         <v>1636</v>
@@ -26252,7 +26252,7 @@
         <v>151</v>
       </c>
       <c r="B192" t="n">
-        <v>135270</v>
+        <v>166181</v>
       </c>
       <c r="C192" t="s">
         <v>1646</v>
@@ -26327,7 +26327,7 @@
         <v>151</v>
       </c>
       <c r="B193" t="n">
-        <v>135271</v>
+        <v>166182</v>
       </c>
       <c r="C193" t="s">
         <v>1652</v>
@@ -26402,7 +26402,7 @@
         <v>151</v>
       </c>
       <c r="B194" t="n">
-        <v>135272</v>
+        <v>166183</v>
       </c>
       <c r="C194" t="s">
         <v>1661</v>
@@ -26477,7 +26477,7 @@
         <v>151</v>
       </c>
       <c r="B195" t="n">
-        <v>135273</v>
+        <v>166184</v>
       </c>
       <c r="C195" t="s">
         <v>1670</v>
@@ -26621,7 +26621,7 @@
         <v>151</v>
       </c>
       <c r="B197" t="n">
-        <v>135274</v>
+        <v>166185</v>
       </c>
       <c r="C197" t="s">
         <v>1686</v>
@@ -26696,7 +26696,7 @@
         <v>151</v>
       </c>
       <c r="B198" t="n">
-        <v>135275</v>
+        <v>166186</v>
       </c>
       <c r="C198" t="s">
         <v>1695</v>
@@ -26767,7 +26767,7 @@
         <v>151</v>
       </c>
       <c r="B199" t="n">
-        <v>135276</v>
+        <v>166187</v>
       </c>
       <c r="C199" t="s">
         <v>1701</v>
@@ -26842,7 +26842,7 @@
         <v>151</v>
       </c>
       <c r="B200" t="n">
-        <v>135277</v>
+        <v>166188</v>
       </c>
       <c r="C200" t="s">
         <v>1710</v>
@@ -26917,7 +26917,7 @@
         <v>151</v>
       </c>
       <c r="B201" t="n">
-        <v>135278</v>
+        <v>166189</v>
       </c>
       <c r="C201" t="s">
         <v>1719</v>
@@ -26990,7 +26990,7 @@
         <v>151</v>
       </c>
       <c r="B202" t="n">
-        <v>135279</v>
+        <v>166190</v>
       </c>
       <c r="C202" t="s">
         <v>1725</v>
@@ -27055,7 +27055,7 @@
         <v>151</v>
       </c>
       <c r="B203" t="n">
-        <v>135280</v>
+        <v>166191</v>
       </c>
       <c r="C203" t="s">
         <v>1732</v>
@@ -27130,7 +27130,7 @@
         <v>151</v>
       </c>
       <c r="B204" t="n">
-        <v>135281</v>
+        <v>166192</v>
       </c>
       <c r="C204" t="s">
         <v>1742</v>
@@ -27205,7 +27205,7 @@
         <v>151</v>
       </c>
       <c r="B205" t="n">
-        <v>135282</v>
+        <v>166193</v>
       </c>
       <c r="C205" t="s">
         <v>1751</v>
@@ -27280,7 +27280,7 @@
         <v>151</v>
       </c>
       <c r="B206" t="n">
-        <v>135283</v>
+        <v>166194</v>
       </c>
       <c r="C206" t="s">
         <v>1761</v>
@@ -27355,7 +27355,7 @@
         <v>151</v>
       </c>
       <c r="B207" t="n">
-        <v>135284</v>
+        <v>135165</v>
       </c>
       <c r="C207" t="s">
         <v>1770</v>
@@ -27430,7 +27430,7 @@
         <v>151</v>
       </c>
       <c r="B208" t="n">
-        <v>135285</v>
+        <v>166195</v>
       </c>
       <c r="C208" t="s">
         <v>1777</v>
@@ -27505,7 +27505,7 @@
         <v>151</v>
       </c>
       <c r="B209" t="n">
-        <v>135286</v>
+        <v>166196</v>
       </c>
       <c r="C209" t="s">
         <v>1786</v>
@@ -27635,7 +27635,7 @@
         <v>151</v>
       </c>
       <c r="B211" t="n">
-        <v>135287</v>
+        <v>166197</v>
       </c>
       <c r="C211" t="s">
         <v>1804</v>
@@ -27702,7 +27702,7 @@
         <v>151</v>
       </c>
       <c r="B212" t="n">
-        <v>135288</v>
+        <v>166198</v>
       </c>
       <c r="C212" t="s">
         <v>1813</v>
@@ -27777,7 +27777,7 @@
         <v>151</v>
       </c>
       <c r="B213" t="n">
-        <v>135289</v>
+        <v>166199</v>
       </c>
       <c r="C213" t="s">
         <v>1822</v>
@@ -27852,7 +27852,7 @@
         <v>151</v>
       </c>
       <c r="B214" t="n">
-        <v>135290</v>
+        <v>166200</v>
       </c>
       <c r="C214" t="s">
         <v>1832</v>
@@ -27927,7 +27927,7 @@
         <v>151</v>
       </c>
       <c r="B215" t="n">
-        <v>135291</v>
+        <v>166201</v>
       </c>
       <c r="C215" t="s">
         <v>1839</v>
@@ -28002,7 +28002,7 @@
         <v>151</v>
       </c>
       <c r="B216" t="n">
-        <v>135292</v>
+        <v>166202</v>
       </c>
       <c r="C216" t="s">
         <v>1848</v>
@@ -28077,7 +28077,7 @@
         <v>151</v>
       </c>
       <c r="B217" t="n">
-        <v>135293</v>
+        <v>166203</v>
       </c>
       <c r="C217" t="s">
         <v>1855</v>
@@ -28152,7 +28152,7 @@
         <v>151</v>
       </c>
       <c r="B218" t="n">
-        <v>135294</v>
+        <v>166204</v>
       </c>
       <c r="C218" t="s">
         <v>1862</v>
@@ -28227,7 +28227,7 @@
         <v>151</v>
       </c>
       <c r="B219" t="n">
-        <v>135295</v>
+        <v>166205</v>
       </c>
       <c r="C219" t="s">
         <v>1871</v>
@@ -28302,7 +28302,7 @@
         <v>151</v>
       </c>
       <c r="B220" t="n">
-        <v>135296</v>
+        <v>166206</v>
       </c>
       <c r="C220" t="s">
         <v>1880</v>
@@ -28438,7 +28438,7 @@
         <v>151</v>
       </c>
       <c r="B222" t="n">
-        <v>135297</v>
+        <v>166207</v>
       </c>
       <c r="C222" t="s">
         <v>1897</v>
@@ -28588,7 +28588,7 @@
         <v>151</v>
       </c>
       <c r="B224" t="n">
-        <v>135298</v>
+        <v>166208</v>
       </c>
       <c r="C224" t="s">
         <v>1913</v>
@@ -28653,7 +28653,7 @@
         <v>151</v>
       </c>
       <c r="B225" t="n">
-        <v>135299</v>
+        <v>166209</v>
       </c>
       <c r="C225" t="s">
         <v>1922</v>
@@ -28797,7 +28797,7 @@
         <v>151</v>
       </c>
       <c r="B227" t="n">
-        <v>135300</v>
+        <v>166210</v>
       </c>
       <c r="C227" t="s">
         <v>1939</v>
@@ -28862,7 +28862,7 @@
         <v>151</v>
       </c>
       <c r="B228" t="n">
-        <v>135301</v>
+        <v>166211</v>
       </c>
       <c r="C228" t="s">
         <v>1946</v>
@@ -28937,7 +28937,7 @@
         <v>151</v>
       </c>
       <c r="B229" t="n">
-        <v>135302</v>
+        <v>166212</v>
       </c>
       <c r="C229" t="s">
         <v>1955</v>
@@ -29087,7 +29087,7 @@
         <v>151</v>
       </c>
       <c r="B231" t="n">
-        <v>135303</v>
+        <v>166213</v>
       </c>
       <c r="C231" t="s">
         <v>1970</v>
@@ -29162,7 +29162,7 @@
         <v>151</v>
       </c>
       <c r="B232" t="n">
-        <v>135283</v>
+        <v>135165</v>
       </c>
       <c r="C232" t="s">
         <v>1770</v>
@@ -29237,7 +29237,7 @@
         <v>151</v>
       </c>
       <c r="B233" t="n">
-        <v>135304</v>
+        <v>166214</v>
       </c>
       <c r="C233" t="s">
         <v>1982</v>
@@ -29312,7 +29312,7 @@
         <v>151</v>
       </c>
       <c r="B234" t="n">
-        <v>135305</v>
+        <v>166215</v>
       </c>
       <c r="C234" t="s">
         <v>1991</v>
@@ -29387,7 +29387,7 @@
         <v>151</v>
       </c>
       <c r="B235" t="n">
-        <v>135306</v>
+        <v>166216</v>
       </c>
       <c r="C235" t="s">
         <v>2000</v>
@@ -29460,7 +29460,7 @@
         <v>151</v>
       </c>
       <c r="B236" t="n">
-        <v>135307</v>
+        <v>166217</v>
       </c>
       <c r="C236" t="s">
         <v>2004</v>
@@ -29535,7 +29535,7 @@
         <v>151</v>
       </c>
       <c r="B237" t="n">
-        <v>135308</v>
+        <v>166218</v>
       </c>
       <c r="C237" t="s">
         <v>2014</v>
@@ -29610,7 +29610,7 @@
         <v>151</v>
       </c>
       <c r="B238" t="n">
-        <v>135309</v>
+        <v>166219</v>
       </c>
       <c r="C238" t="s">
         <v>2021</v>
@@ -29685,7 +29685,7 @@
         <v>151</v>
       </c>
       <c r="B239" t="n">
-        <v>135310</v>
+        <v>166220</v>
       </c>
       <c r="C239" t="s">
         <v>2028</v>
@@ -29760,7 +29760,7 @@
         <v>151</v>
       </c>
       <c r="B240" t="n">
-        <v>135311</v>
+        <v>166221</v>
       </c>
       <c r="C240" t="s">
         <v>2037</v>
@@ -29835,7 +29835,7 @@
         <v>151</v>
       </c>
       <c r="B241" t="n">
-        <v>135312</v>
+        <v>166222</v>
       </c>
       <c r="C241" t="s">
         <v>2046</v>
@@ -29908,7 +29908,7 @@
         <v>151</v>
       </c>
       <c r="B242" t="n">
-        <v>135313</v>
+        <v>166223</v>
       </c>
       <c r="C242" t="s">
         <v>2053</v>
@@ -29983,7 +29983,7 @@
         <v>151</v>
       </c>
       <c r="B243" t="n">
-        <v>135314</v>
+        <v>166224</v>
       </c>
       <c r="C243" t="s">
         <v>2063</v>
@@ -30058,7 +30058,7 @@
         <v>151</v>
       </c>
       <c r="B244" t="n">
-        <v>135315</v>
+        <v>166225</v>
       </c>
       <c r="C244" t="s">
         <v>2072</v>
@@ -30133,7 +30133,7 @@
         <v>151</v>
       </c>
       <c r="B245" t="n">
-        <v>135316</v>
+        <v>166226</v>
       </c>
       <c r="C245" t="s">
         <v>2078</v>
@@ -30283,7 +30283,7 @@
         <v>151</v>
       </c>
       <c r="B247" t="n">
-        <v>135317</v>
+        <v>166227</v>
       </c>
       <c r="C247" t="s">
         <v>2093</v>
@@ -30356,7 +30356,7 @@
         <v>151</v>
       </c>
       <c r="B248" t="n">
-        <v>135318</v>
+        <v>166228</v>
       </c>
       <c r="C248" t="s">
         <v>2097</v>
@@ -30431,7 +30431,7 @@
         <v>151</v>
       </c>
       <c r="B249" t="n">
-        <v>135319</v>
+        <v>166229</v>
       </c>
       <c r="C249" t="s">
         <v>2106</v>
@@ -30506,7 +30506,7 @@
         <v>151</v>
       </c>
       <c r="B250" t="n">
-        <v>135320</v>
+        <v>166230</v>
       </c>
       <c r="C250" t="s">
         <v>2116</v>
@@ -30581,7 +30581,7 @@
         <v>151</v>
       </c>
       <c r="B251" t="n">
-        <v>135321</v>
+        <v>135198</v>
       </c>
       <c r="C251" t="s">
         <v>2123</v>
@@ -30654,7 +30654,7 @@
         <v>151</v>
       </c>
       <c r="B252" t="n">
-        <v>135322</v>
+        <v>166231</v>
       </c>
       <c r="C252" t="s">
         <v>2129</v>
@@ -30873,7 +30873,7 @@
         <v>151</v>
       </c>
       <c r="B255" t="n">
-        <v>135323</v>
+        <v>166232</v>
       </c>
       <c r="C255" t="s">
         <v>2154</v>
@@ -31019,7 +31019,7 @@
         <v>151</v>
       </c>
       <c r="B257" t="n">
-        <v>135324</v>
+        <v>166233</v>
       </c>
       <c r="C257" t="s">
         <v>2172</v>
@@ -31094,7 +31094,7 @@
         <v>151</v>
       </c>
       <c r="B258" t="n">
-        <v>135325</v>
+        <v>166234</v>
       </c>
       <c r="C258" t="s">
         <v>2181</v>
@@ -31390,7 +31390,7 @@
         <v>151</v>
       </c>
       <c r="B262" t="n">
-        <v>135326</v>
+        <v>166235</v>
       </c>
       <c r="C262" t="s">
         <v>2213</v>
@@ -31459,7 +31459,7 @@
         <v>151</v>
       </c>
       <c r="B263" t="n">
-        <v>135327</v>
+        <v>166236</v>
       </c>
       <c r="C263" t="s">
         <v>2220</v>
@@ -31534,7 +31534,7 @@
         <v>151</v>
       </c>
       <c r="B264" t="n">
-        <v>135328</v>
+        <v>166237</v>
       </c>
       <c r="C264" t="s">
         <v>2229</v>
@@ -31605,7 +31605,7 @@
         <v>151</v>
       </c>
       <c r="B265" t="n">
-        <v>135329</v>
+        <v>166238</v>
       </c>
       <c r="C265" t="s">
         <v>2236</v>
@@ -31676,7 +31676,7 @@
         <v>151</v>
       </c>
       <c r="B266" t="n">
-        <v>135330</v>
+        <v>166239</v>
       </c>
       <c r="C266" t="s">
         <v>2242</v>
@@ -31751,7 +31751,7 @@
         <v>151</v>
       </c>
       <c r="B267" t="n">
-        <v>135331</v>
+        <v>166240</v>
       </c>
       <c r="C267" t="s">
         <v>2251</v>
@@ -31897,7 +31897,7 @@
         <v>151</v>
       </c>
       <c r="B269" t="n">
-        <v>135332</v>
+        <v>166241</v>
       </c>
       <c r="C269" t="s">
         <v>2266</v>
@@ -31962,7 +31962,7 @@
         <v>151</v>
       </c>
       <c r="B270" t="n">
-        <v>135333</v>
+        <v>166242</v>
       </c>
       <c r="C270" t="s">
         <v>2275</v>
@@ -32037,7 +32037,7 @@
         <v>151</v>
       </c>
       <c r="B271" t="n">
-        <v>135334</v>
+        <v>166243</v>
       </c>
       <c r="C271" t="s">
         <v>2284</v>
@@ -32187,7 +32187,7 @@
         <v>151</v>
       </c>
       <c r="B273" t="n">
-        <v>135335</v>
+        <v>166244</v>
       </c>
       <c r="C273" t="s">
         <v>2299</v>
@@ -32331,7 +32331,7 @@
         <v>151</v>
       </c>
       <c r="B275" t="n">
-        <v>135336</v>
+        <v>166245</v>
       </c>
       <c r="C275" t="s">
         <v>2310</v>
@@ -32556,7 +32556,7 @@
         <v>151</v>
       </c>
       <c r="B278" t="n">
-        <v>135337</v>
+        <v>166246</v>
       </c>
       <c r="C278" t="s">
         <v>2337</v>
@@ -32627,7 +32627,7 @@
         <v>151</v>
       </c>
       <c r="B279" t="n">
-        <v>135338</v>
+        <v>166247</v>
       </c>
       <c r="C279" t="s">
         <v>2346</v>
@@ -32771,7 +32771,7 @@
         <v>151</v>
       </c>
       <c r="B281" t="n">
-        <v>135339</v>
+        <v>166248</v>
       </c>
       <c r="C281" t="s">
         <v>2362</v>
@@ -32846,7 +32846,7 @@
         <v>151</v>
       </c>
       <c r="B282" t="n">
-        <v>135340</v>
+        <v>166249</v>
       </c>
       <c r="C282" t="s">
         <v>2371</v>
@@ -32921,7 +32921,7 @@
         <v>151</v>
       </c>
       <c r="B283" t="n">
-        <v>135341</v>
+        <v>166250</v>
       </c>
       <c r="C283" t="s">
         <v>2378</v>
@@ -32996,7 +32996,7 @@
         <v>151</v>
       </c>
       <c r="B284" t="n">
-        <v>135342</v>
+        <v>166251</v>
       </c>
       <c r="C284" t="s">
         <v>2388</v>
@@ -33069,7 +33069,7 @@
         <v>151</v>
       </c>
       <c r="B285" t="n">
-        <v>135343</v>
+        <v>166252</v>
       </c>
       <c r="C285" t="s">
         <v>2394</v>
@@ -33219,7 +33219,7 @@
         <v>151</v>
       </c>
       <c r="B287" t="n">
-        <v>135344</v>
+        <v>166253</v>
       </c>
       <c r="C287" t="s">
         <v>2408</v>
@@ -33284,7 +33284,7 @@
         <v>151</v>
       </c>
       <c r="B288" t="n">
-        <v>135345</v>
+        <v>166254</v>
       </c>
       <c r="C288" t="s">
         <v>2415</v>
@@ -33349,7 +33349,7 @@
         <v>151</v>
       </c>
       <c r="B289" t="n">
-        <v>135346</v>
+        <v>166255</v>
       </c>
       <c r="C289" t="s">
         <v>2424</v>
@@ -33420,7 +33420,7 @@
         <v>151</v>
       </c>
       <c r="B290" t="n">
-        <v>135347</v>
+        <v>166256</v>
       </c>
       <c r="C290" t="s">
         <v>2433</v>
@@ -33489,7 +33489,7 @@
         <v>151</v>
       </c>
       <c r="B291" t="n">
-        <v>135348</v>
+        <v>166257</v>
       </c>
       <c r="C291" t="s">
         <v>2443</v>
@@ -33562,7 +33562,7 @@
         <v>151</v>
       </c>
       <c r="B292" t="n">
-        <v>135349</v>
+        <v>166258</v>
       </c>
       <c r="C292" t="s">
         <v>2453</v>
@@ -33637,7 +33637,7 @@
         <v>151</v>
       </c>
       <c r="B293" t="n">
-        <v>135350</v>
+        <v>166259</v>
       </c>
       <c r="C293" t="s">
         <v>2462</v>
@@ -33787,7 +33787,7 @@
         <v>151</v>
       </c>
       <c r="B295" t="n">
-        <v>135351</v>
+        <v>166260</v>
       </c>
       <c r="C295" t="s">
         <v>2480</v>
@@ -33862,7 +33862,7 @@
         <v>151</v>
       </c>
       <c r="B296" t="n">
-        <v>135352</v>
+        <v>166261</v>
       </c>
       <c r="C296" t="s">
         <v>2486</v>
@@ -33937,7 +33937,7 @@
         <v>151</v>
       </c>
       <c r="B297" t="n">
-        <v>135353</v>
+        <v>166262</v>
       </c>
       <c r="C297" t="s">
         <v>2496</v>
@@ -34012,7 +34012,7 @@
         <v>151</v>
       </c>
       <c r="B298" t="n">
-        <v>135354</v>
+        <v>166263</v>
       </c>
       <c r="C298" t="s">
         <v>2505</v>
@@ -34087,7 +34087,7 @@
         <v>151</v>
       </c>
       <c r="B299" t="n">
-        <v>135355</v>
+        <v>166264</v>
       </c>
       <c r="C299" t="s">
         <v>2514</v>
@@ -34312,7 +34312,7 @@
         <v>151</v>
       </c>
       <c r="B302" t="n">
-        <v>135356</v>
+        <v>166265</v>
       </c>
       <c r="C302" t="s">
         <v>2538</v>
@@ -34458,7 +34458,7 @@
         <v>151</v>
       </c>
       <c r="B304" t="n">
-        <v>135357</v>
+        <v>166266</v>
       </c>
       <c r="C304" t="s">
         <v>2554</v>
@@ -34608,7 +34608,7 @@
         <v>151</v>
       </c>
       <c r="B306" t="n">
-        <v>135358</v>
+        <v>166267</v>
       </c>
       <c r="C306" t="s">
         <v>2572</v>
@@ -34673,7 +34673,7 @@
         <v>151</v>
       </c>
       <c r="B307" t="n">
-        <v>135359</v>
+        <v>166268</v>
       </c>
       <c r="C307" t="s">
         <v>2581</v>
@@ -34748,7 +34748,7 @@
         <v>151</v>
       </c>
       <c r="B308" t="n">
-        <v>135360</v>
+        <v>166269</v>
       </c>
       <c r="C308" t="s">
         <v>2588</v>
@@ -35028,7 +35028,7 @@
         <v>151</v>
       </c>
       <c r="B312" t="n">
-        <v>135361</v>
+        <v>166270</v>
       </c>
       <c r="C312" t="s">
         <v>2623</v>
@@ -35178,7 +35178,7 @@
         <v>151</v>
       </c>
       <c r="B314" t="n">
-        <v>135362</v>
+        <v>166271</v>
       </c>
       <c r="C314" t="s">
         <v>2639</v>
@@ -35253,7 +35253,7 @@
         <v>151</v>
       </c>
       <c r="B315" t="n">
-        <v>135363</v>
+        <v>166272</v>
       </c>
       <c r="C315" t="s">
         <v>2648</v>
@@ -35328,7 +35328,7 @@
         <v>151</v>
       </c>
       <c r="B316" t="n">
-        <v>135364</v>
+        <v>166273</v>
       </c>
       <c r="C316" t="s">
         <v>2655</v>
@@ -35403,7 +35403,7 @@
         <v>151</v>
       </c>
       <c r="B317" t="n">
-        <v>135365</v>
+        <v>166274</v>
       </c>
       <c r="C317" t="s">
         <v>2664</v>
@@ -35926,7 +35926,7 @@
         <v>151</v>
       </c>
       <c r="B324" t="n">
-        <v>135366</v>
+        <v>166275</v>
       </c>
       <c r="C324" t="s">
         <v>2714</v>
@@ -36137,7 +36137,7 @@
         <v>151</v>
       </c>
       <c r="B327" t="n">
-        <v>135367</v>
+        <v>166276</v>
       </c>
       <c r="C327" t="s">
         <v>2741</v>
@@ -36287,7 +36287,7 @@
         <v>151</v>
       </c>
       <c r="B329" t="n">
-        <v>135320</v>
+        <v>135198</v>
       </c>
       <c r="C329" t="s">
         <v>2123</v>
@@ -36362,7 +36362,7 @@
         <v>151</v>
       </c>
       <c r="B330" t="n">
-        <v>135368</v>
+        <v>166277</v>
       </c>
       <c r="C330" t="s">
         <v>2762</v>
@@ -36735,7 +36735,7 @@
         <v>151</v>
       </c>
       <c r="B335" t="n">
-        <v>135369</v>
+        <v>166278</v>
       </c>
       <c r="C335" t="s">
         <v>2799</v>
@@ -37035,7 +37035,7 @@
         <v>151</v>
       </c>
       <c r="B339" t="n">
-        <v>135370</v>
+        <v>166279</v>
       </c>
       <c r="C339" t="s">
         <v>2834</v>
@@ -37110,7 +37110,7 @@
         <v>151</v>
       </c>
       <c r="B340" t="n">
-        <v>135371</v>
+        <v>166280</v>
       </c>
       <c r="C340" t="s">
         <v>2841</v>
@@ -37333,7 +37333,7 @@
         <v>151</v>
       </c>
       <c r="B343" t="n">
-        <v>135372</v>
+        <v>166281</v>
       </c>
       <c r="C343" t="s">
         <v>2862</v>
@@ -37408,7 +37408,7 @@
         <v>151</v>
       </c>
       <c r="B344" t="n">
-        <v>135373</v>
+        <v>166282</v>
       </c>
       <c r="C344" t="s">
         <v>2871</v>
@@ -37483,7 +37483,7 @@
         <v>151</v>
       </c>
       <c r="B345" t="n">
-        <v>135374</v>
+        <v>166283</v>
       </c>
       <c r="C345" t="s">
         <v>2881</v>
@@ -37708,7 +37708,7 @@
         <v>151</v>
       </c>
       <c r="B348" t="n">
-        <v>135375</v>
+        <v>166284</v>
       </c>
       <c r="C348" t="s">
         <v>2901</v>
@@ -37783,7 +37783,7 @@
         <v>151</v>
       </c>
       <c r="B349" t="n">
-        <v>135376</v>
+        <v>166285</v>
       </c>
       <c r="C349" t="s">
         <v>2907</v>
@@ -37933,7 +37933,7 @@
         <v>151</v>
       </c>
       <c r="B351" t="n">
-        <v>135377</v>
+        <v>166286</v>
       </c>
       <c r="C351" t="s">
         <v>2922</v>
@@ -38008,7 +38008,7 @@
         <v>151</v>
       </c>
       <c r="B352" t="n">
-        <v>135378</v>
+        <v>166287</v>
       </c>
       <c r="C352" t="s">
         <v>2929</v>
@@ -38158,7 +38158,7 @@
         <v>151</v>
       </c>
       <c r="B354" t="n">
-        <v>135379</v>
+        <v>166288</v>
       </c>
       <c r="C354" t="s">
         <v>2947</v>
@@ -38383,7 +38383,7 @@
         <v>151</v>
       </c>
       <c r="B357" t="n">
-        <v>135380</v>
+        <v>166289</v>
       </c>
       <c r="C357" t="s">
         <v>2975</v>
@@ -38533,7 +38533,7 @@
         <v>151</v>
       </c>
       <c r="B359" t="n">
-        <v>135381</v>
+        <v>166290</v>
       </c>
       <c r="C359" t="s">
         <v>2991</v>
@@ -38683,7 +38683,7 @@
         <v>151</v>
       </c>
       <c r="B361" t="n">
-        <v>135382</v>
+        <v>166291</v>
       </c>
       <c r="C361" t="s">
         <v>3010</v>
@@ -38833,7 +38833,7 @@
         <v>151</v>
       </c>
       <c r="B363" t="n">
-        <v>135383</v>
+        <v>166292</v>
       </c>
       <c r="C363" t="s">
         <v>3028</v>
@@ -38908,7 +38908,7 @@
         <v>151</v>
       </c>
       <c r="B364" t="n">
-        <v>135384</v>
+        <v>166293</v>
       </c>
       <c r="C364" t="s">
         <v>3037</v>
@@ -39273,7 +39273,7 @@
         <v>151</v>
       </c>
       <c r="B369" t="n">
-        <v>135385</v>
+        <v>166294</v>
       </c>
       <c r="C369" t="s">
         <v>3081</v>
@@ -39344,7 +39344,7 @@
         <v>151</v>
       </c>
       <c r="B370" t="n">
-        <v>135386</v>
+        <v>166295</v>
       </c>
       <c r="C370" t="s">
         <v>3090</v>
@@ -39490,7 +39490,7 @@
         <v>151</v>
       </c>
       <c r="B372" t="n">
-        <v>135387</v>
+        <v>166296</v>
       </c>
       <c r="C372" t="s">
         <v>3107</v>
@@ -39715,7 +39715,7 @@
         <v>151</v>
       </c>
       <c r="B375" t="n">
-        <v>135388</v>
+        <v>166297</v>
       </c>
       <c r="C375" t="s">
         <v>3132</v>
@@ -39865,7 +39865,7 @@
         <v>151</v>
       </c>
       <c r="B377" t="n">
-        <v>135389</v>
+        <v>166298</v>
       </c>
       <c r="C377" t="s">
         <v>3147</v>
@@ -40015,7 +40015,7 @@
         <v>151</v>
       </c>
       <c r="B379" t="n">
-        <v>135390</v>
+        <v>166299</v>
       </c>
       <c r="C379" t="s">
         <v>3162</v>
@@ -40090,7 +40090,7 @@
         <v>151</v>
       </c>
       <c r="B380" t="n">
-        <v>135391</v>
+        <v>166300</v>
       </c>
       <c r="C380" t="s">
         <v>3171</v>
@@ -40238,7 +40238,7 @@
         <v>151</v>
       </c>
       <c r="B382" t="n">
-        <v>135392</v>
+        <v>166301</v>
       </c>
       <c r="C382" t="s">
         <v>3184</v>
@@ -40313,7 +40313,7 @@
         <v>151</v>
       </c>
       <c r="B383" t="n">
-        <v>135393</v>
+        <v>166302</v>
       </c>
       <c r="C383" t="s">
         <v>3191</v>
@@ -40463,7 +40463,7 @@
         <v>151</v>
       </c>
       <c r="B385" t="n">
-        <v>135394</v>
+        <v>166303</v>
       </c>
       <c r="C385" t="s">
         <v>3209</v>
@@ -40684,7 +40684,7 @@
         <v>151</v>
       </c>
       <c r="B388" t="n">
-        <v>135395</v>
+        <v>166304</v>
       </c>
       <c r="C388" t="s">
         <v>3232</v>
@@ -40759,7 +40759,7 @@
         <v>151</v>
       </c>
       <c r="B389" t="n">
-        <v>135396</v>
+        <v>166305</v>
       </c>
       <c r="C389" t="s">
         <v>3240</v>
@@ -40830,7 +40830,7 @@
         <v>151</v>
       </c>
       <c r="B390" t="n">
-        <v>135397</v>
+        <v>166306</v>
       </c>
       <c r="C390" t="s">
         <v>3249</v>
@@ -40980,7 +40980,7 @@
         <v>151</v>
       </c>
       <c r="B392" t="n">
-        <v>135398</v>
+        <v>166307</v>
       </c>
       <c r="C392" t="s">
         <v>3268</v>
@@ -41280,7 +41280,7 @@
         <v>151</v>
       </c>
       <c r="B396" t="n">
-        <v>135399</v>
+        <v>166308</v>
       </c>
       <c r="C396" t="s">
         <v>3305</v>
@@ -41505,7 +41505,7 @@
         <v>151</v>
       </c>
       <c r="B399" t="n">
-        <v>135400</v>
+        <v>166309</v>
       </c>
       <c r="C399" t="s">
         <v>3330</v>
@@ -41797,7 +41797,7 @@
         <v>151</v>
       </c>
       <c r="B403" t="n">
-        <v>135401</v>
+        <v>166310</v>
       </c>
       <c r="C403" t="s">
         <v>3363</v>
@@ -41872,7 +41872,7 @@
         <v>151</v>
       </c>
       <c r="B404" t="n">
-        <v>135402</v>
+        <v>166311</v>
       </c>
       <c r="C404" t="s">
         <v>3372</v>
@@ -42170,7 +42170,7 @@
         <v>151</v>
       </c>
       <c r="B408" t="n">
-        <v>135403</v>
+        <v>166312</v>
       </c>
       <c r="C408" t="s">
         <v>3407</v>
@@ -42245,7 +42245,7 @@
         <v>151</v>
       </c>
       <c r="B409" t="n">
-        <v>135404</v>
+        <v>166313</v>
       </c>
       <c r="C409" t="s">
         <v>3413</v>
@@ -42543,7 +42543,7 @@
         <v>151</v>
       </c>
       <c r="B413" t="n">
-        <v>135405</v>
+        <v>166314</v>
       </c>
       <c r="C413" t="s">
         <v>3443</v>
@@ -42768,7 +42768,7 @@
         <v>151</v>
       </c>
       <c r="B416" t="n">
-        <v>135406</v>
+        <v>166315</v>
       </c>
       <c r="C416" t="s">
         <v>3471</v>
@@ -43054,7 +43054,7 @@
         <v>151</v>
       </c>
       <c r="B420" t="n">
-        <v>135407</v>
+        <v>166316</v>
       </c>
       <c r="C420" t="s">
         <v>3503</v>
@@ -43125,7 +43125,7 @@
         <v>151</v>
       </c>
       <c r="B421" t="n">
-        <v>135408</v>
+        <v>166317</v>
       </c>
       <c r="C421" t="s">
         <v>3512</v>
@@ -43275,7 +43275,7 @@
         <v>151</v>
       </c>
       <c r="B423" t="n">
-        <v>135409</v>
+        <v>166318</v>
       </c>
       <c r="C423" t="s">
         <v>3529</v>
@@ -43423,7 +43423,7 @@
         <v>151</v>
       </c>
       <c r="B425" t="n">
-        <v>135410</v>
+        <v>166319</v>
       </c>
       <c r="C425" t="s">
         <v>3542</v>
@@ -43494,7 +43494,7 @@
         <v>151</v>
       </c>
       <c r="B426" t="n">
-        <v>135411</v>
+        <v>166320</v>
       </c>
       <c r="C426" t="s">
         <v>3549</v>
@@ -43569,7 +43569,7 @@
         <v>151</v>
       </c>
       <c r="B427" t="n">
-        <v>135412</v>
+        <v>166321</v>
       </c>
       <c r="C427" t="s">
         <v>3559</v>
@@ -43644,7 +43644,7 @@
         <v>151</v>
       </c>
       <c r="B428" t="n">
-        <v>135413</v>
+        <v>166322</v>
       </c>
       <c r="C428" t="s">
         <v>3566</v>
@@ -43786,7 +43786,7 @@
         <v>151</v>
       </c>
       <c r="B430" t="n">
-        <v>135414</v>
+        <v>166323</v>
       </c>
       <c r="C430" t="s">
         <v>3578</v>
@@ -43999,7 +43999,7 @@
         <v>151</v>
       </c>
       <c r="B433" t="n">
-        <v>135415</v>
+        <v>166324</v>
       </c>
       <c r="C433" t="s">
         <v>3597</v>
@@ -44141,7 +44141,7 @@
         <v>151</v>
       </c>
       <c r="B435" t="n">
-        <v>135416</v>
+        <v>166325</v>
       </c>
       <c r="C435" t="s">
         <v>3608</v>
@@ -44287,7 +44287,7 @@
         <v>151</v>
       </c>
       <c r="B437" t="n">
-        <v>135417</v>
+        <v>166326</v>
       </c>
       <c r="C437" t="s">
         <v>3623</v>
@@ -44648,7 +44648,7 @@
         <v>151</v>
       </c>
       <c r="B442" t="n">
-        <v>135418</v>
+        <v>166327</v>
       </c>
       <c r="C442" t="s">
         <v>3655</v>
@@ -44723,7 +44723,7 @@
         <v>151</v>
       </c>
       <c r="B443" t="n">
-        <v>135419</v>
+        <v>166328</v>
       </c>
       <c r="C443" t="s">
         <v>3664</v>
@@ -44798,7 +44798,7 @@
         <v>151</v>
       </c>
       <c r="B444" t="n">
-        <v>135420</v>
+        <v>166329</v>
       </c>
       <c r="C444" t="s">
         <v>3674</v>
@@ -44873,7 +44873,7 @@
         <v>151</v>
       </c>
       <c r="B445" t="n">
-        <v>135421</v>
+        <v>166330</v>
       </c>
       <c r="C445" t="s">
         <v>3684</v>
@@ -44948,7 +44948,7 @@
         <v>151</v>
       </c>
       <c r="B446" t="n">
-        <v>135422</v>
+        <v>166331</v>
       </c>
       <c r="C446" t="s">
         <v>3693</v>
@@ -45019,7 +45019,7 @@
         <v>151</v>
       </c>
       <c r="B447" t="n">
-        <v>135423</v>
+        <v>166332</v>
       </c>
       <c r="C447" t="s">
         <v>3701</v>
@@ -45094,7 +45094,7 @@
         <v>151</v>
       </c>
       <c r="B448" t="n">
-        <v>135424</v>
+        <v>166333</v>
       </c>
       <c r="C448" t="s">
         <v>3711</v>
@@ -45169,7 +45169,7 @@
         <v>151</v>
       </c>
       <c r="B449" t="n">
-        <v>135425</v>
+        <v>166334</v>
       </c>
       <c r="C449" t="s">
         <v>3718</v>
@@ -45319,7 +45319,7 @@
         <v>151</v>
       </c>
       <c r="B451" t="n">
-        <v>135426</v>
+        <v>166335</v>
       </c>
       <c r="C451" t="s">
         <v>3733</v>
@@ -45394,7 +45394,7 @@
         <v>151</v>
       </c>
       <c r="B452" t="n">
-        <v>135427</v>
+        <v>166336</v>
       </c>
       <c r="C452" t="s">
         <v>3743</v>
@@ -45469,7 +45469,7 @@
         <v>151</v>
       </c>
       <c r="B453" t="n">
-        <v>135428</v>
+        <v>166337</v>
       </c>
       <c r="C453" t="s">
         <v>3752</v>
@@ -45544,7 +45544,7 @@
         <v>151</v>
       </c>
       <c r="B454" t="n">
-        <v>135429</v>
+        <v>166338</v>
       </c>
       <c r="C454" t="s">
         <v>3762</v>
@@ -45619,7 +45619,7 @@
         <v>151</v>
       </c>
       <c r="B455" t="n">
-        <v>135430</v>
+        <v>166339</v>
       </c>
       <c r="C455" t="s">
         <v>3771</v>
@@ -45686,7 +45686,7 @@
         <v>151</v>
       </c>
       <c r="B456" t="n">
-        <v>135431</v>
+        <v>166340</v>
       </c>
       <c r="C456" t="s">
         <v>3778</v>
@@ -45753,7 +45753,7 @@
         <v>151</v>
       </c>
       <c r="B457" t="n">
-        <v>135432</v>
+        <v>166341</v>
       </c>
       <c r="C457" t="s">
         <v>3785</v>
@@ -45820,7 +45820,7 @@
         <v>151</v>
       </c>
       <c r="B458" t="n">
-        <v>135433</v>
+        <v>166342</v>
       </c>
       <c r="C458" t="s">
         <v>3793</v>
@@ -45887,7 +45887,7 @@
         <v>151</v>
       </c>
       <c r="B459" t="n">
-        <v>135434</v>
+        <v>166343</v>
       </c>
       <c r="C459" t="s">
         <v>3799</v>
@@ -45954,7 +45954,7 @@
         <v>151</v>
       </c>
       <c r="B460" t="n">
-        <v>135435</v>
+        <v>166344</v>
       </c>
       <c r="C460" t="s">
         <v>3807</v>
@@ -46025,7 +46025,7 @@
         <v>151</v>
       </c>
       <c r="B461" t="n">
-        <v>135436</v>
+        <v>166345</v>
       </c>
       <c r="C461" t="s">
         <v>3815</v>
@@ -46092,7 +46092,7 @@
         <v>151</v>
       </c>
       <c r="B462" t="n">
-        <v>135437</v>
+        <v>166346</v>
       </c>
       <c r="C462" t="s">
         <v>3822</v>
@@ -46163,7 +46163,7 @@
         <v>151</v>
       </c>
       <c r="B463" t="n">
-        <v>135438</v>
+        <v>166347</v>
       </c>
       <c r="C463" t="s">
         <v>3830</v>
@@ -46234,7 +46234,7 @@
         <v>151</v>
       </c>
       <c r="B464" t="n">
-        <v>135439</v>
+        <v>166348</v>
       </c>
       <c r="C464" t="s">
         <v>3837</v>
@@ -46305,7 +46305,7 @@
         <v>151</v>
       </c>
       <c r="B465" t="n">
-        <v>135440</v>
+        <v>166349</v>
       </c>
       <c r="C465" t="s">
         <v>3845</v>
@@ -46380,7 +46380,7 @@
         <v>151</v>
       </c>
       <c r="B466" t="n">
-        <v>135441</v>
+        <v>166350</v>
       </c>
       <c r="C466" t="s">
         <v>3855</v>
